--- a/po_analysis_by_asin/B0CBVXZDDL_po_data.xlsx
+++ b/po_analysis_by_asin/B0CBVXZDDL_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,129 +452,249 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45320</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>630</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45334</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>420</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>660</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>330</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45488</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45495</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>120</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45502</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45509</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45516</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45523</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45607</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B17" t="n">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B32" t="n">
         <v>40</v>
       </c>
     </row>
@@ -589,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,49 +731,97 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1440</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1950</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1120</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>200</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45597</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B13" t="n">
         <v>40</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CBVXZDDL_po_data.xlsx
+++ b/po_analysis_by_asin/B0CBVXZDDL_po_data.xlsx
@@ -623,7 +623,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
@@ -631,7 +631,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>330</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
@@ -798,7 +798,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1120</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11">

--- a/po_analysis_by_asin/B0CBVXZDDL_po_data.xlsx
+++ b/po_analysis_by_asin/B0CBVXZDDL_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -725,7 +726,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -823,6 +824,593 @@
       </c>
       <c r="B13" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>321</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-26.37485310660766</v>
+      </c>
+      <c r="D2" t="n">
+        <v>691.3503931634493</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>319</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-41.13173758998624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>697.4988738301176</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>313</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-27.62994863236038</v>
+      </c>
+      <c r="D4" t="n">
+        <v>659.1940251715606</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>311</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-56.0001510329251</v>
+      </c>
+      <c r="D5" t="n">
+        <v>683.9992030580478</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>308</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-66.42055448565183</v>
+      </c>
+      <c r="D6" t="n">
+        <v>661.2544959198401</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>306</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-47.92403700987794</v>
+      </c>
+      <c r="D7" t="n">
+        <v>678.2425153290857</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>304</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-54.76496944030786</v>
+      </c>
+      <c r="D8" t="n">
+        <v>644.3642098975768</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>302</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-49.46691241018775</v>
+      </c>
+      <c r="D9" t="n">
+        <v>683.1452475654792</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>300</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-39.16518460653634</v>
+      </c>
+      <c r="D10" t="n">
+        <v>648.9871104096633</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>294</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-61.7462236959167</v>
+      </c>
+      <c r="D11" t="n">
+        <v>645.3150905303454</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>292</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-75.47788810933093</v>
+      </c>
+      <c r="D12" t="n">
+        <v>632.0845954422282</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>290</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-50.98087888754146</v>
+      </c>
+      <c r="D13" t="n">
+        <v>657.9531823684994</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>288</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-102.0754387676903</v>
+      </c>
+      <c r="D14" t="n">
+        <v>637.1436314636308</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>281</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-93.53243120583049</v>
+      </c>
+      <c r="D15" t="n">
+        <v>654.4510661944362</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>279</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-65.47565449771258</v>
+      </c>
+      <c r="D16" t="n">
+        <v>603.8672368109977</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>269</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-62.47940622114317</v>
+      </c>
+      <c r="D17" t="n">
+        <v>629.955922032196</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>265</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-86.47130680370653</v>
+      </c>
+      <c r="D18" t="n">
+        <v>618.5229746543392</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>263</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-86.34028785995719</v>
+      </c>
+      <c r="D19" t="n">
+        <v>605.5015976330302</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>260</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-80.15217669554488</v>
+      </c>
+      <c r="D20" t="n">
+        <v>632.7848579332637</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>258</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-72.12166152427066</v>
+      </c>
+      <c r="D21" t="n">
+        <v>611.6630978317992</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>256</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-95.79475693486428</v>
+      </c>
+      <c r="D22" t="n">
+        <v>650.0727092897188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>254</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-101.0513602630947</v>
+      </c>
+      <c r="D23" t="n">
+        <v>616.0632903432503</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>252</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-103.1495404701203</v>
+      </c>
+      <c r="D24" t="n">
+        <v>590.0663789903448</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>248</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-77.98733021764353</v>
+      </c>
+      <c r="D25" t="n">
+        <v>590.5921084978763</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>215</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-111.7200621479483</v>
+      </c>
+      <c r="D26" t="n">
+        <v>557.5104319915403</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>213</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-119.0014788446964</v>
+      </c>
+      <c r="D27" t="n">
+        <v>564.280563854149</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>210</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-150.1178716423307</v>
+      </c>
+      <c r="D28" t="n">
+        <v>571.7798991477364</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>208</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-150.0045151050702</v>
+      </c>
+      <c r="D29" t="n">
+        <v>573.3691184464665</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>206</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-150.0448210647493</v>
+      </c>
+      <c r="D30" t="n">
+        <v>569.6154398191526</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>204</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-152.1438885305891</v>
+      </c>
+      <c r="D31" t="n">
+        <v>528.403840372429</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>179</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-174.8209820732615</v>
+      </c>
+      <c r="D32" t="n">
+        <v>516.332695241665</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>177</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-186.2753292317971</v>
+      </c>
+      <c r="D33" t="n">
+        <v>509.3337329319882</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>175</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-180.6586291431469</v>
+      </c>
+      <c r="D34" t="n">
+        <v>539.2268985082916</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>173</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-190.46361901817</v>
+      </c>
+      <c r="D35" t="n">
+        <v>530.7310526627302</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>171</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-189.9734868340217</v>
+      </c>
+      <c r="D36" t="n">
+        <v>533.1683060389925</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>169</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-173.110341010167</v>
+      </c>
+      <c r="D37" t="n">
+        <v>540.1715065313767</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>167</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-195.1974367309816</v>
+      </c>
+      <c r="D38" t="n">
+        <v>525.963150058896</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>165</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-166.1893815189382</v>
+      </c>
+      <c r="D39" t="n">
+        <v>520.0059449302208</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>162</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-198.7182104334266</v>
+      </c>
+      <c r="D40" t="n">
+        <v>507.6495340618631</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CBVXZDDL_po_data.xlsx
+++ b/po_analysis_by_asin/B0CBVXZDDL_po_data.xlsx
@@ -837,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,16 +856,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -874,12 +864,6 @@
       <c r="B2" t="n">
         <v>321</v>
       </c>
-      <c r="C2" t="n">
-        <v>-26.37485310660766</v>
-      </c>
-      <c r="D2" t="n">
-        <v>691.3503931634493</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -888,12 +872,6 @@
       <c r="B3" t="n">
         <v>319</v>
       </c>
-      <c r="C3" t="n">
-        <v>-41.13173758998624</v>
-      </c>
-      <c r="D3" t="n">
-        <v>697.4988738301176</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -902,12 +880,6 @@
       <c r="B4" t="n">
         <v>313</v>
       </c>
-      <c r="C4" t="n">
-        <v>-27.62994863236038</v>
-      </c>
-      <c r="D4" t="n">
-        <v>659.1940251715606</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -916,12 +888,6 @@
       <c r="B5" t="n">
         <v>311</v>
       </c>
-      <c r="C5" t="n">
-        <v>-56.0001510329251</v>
-      </c>
-      <c r="D5" t="n">
-        <v>683.9992030580478</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -930,12 +896,6 @@
       <c r="B6" t="n">
         <v>308</v>
       </c>
-      <c r="C6" t="n">
-        <v>-66.42055448565183</v>
-      </c>
-      <c r="D6" t="n">
-        <v>661.2544959198401</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -944,12 +904,6 @@
       <c r="B7" t="n">
         <v>306</v>
       </c>
-      <c r="C7" t="n">
-        <v>-47.92403700987794</v>
-      </c>
-      <c r="D7" t="n">
-        <v>678.2425153290857</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -958,12 +912,6 @@
       <c r="B8" t="n">
         <v>304</v>
       </c>
-      <c r="C8" t="n">
-        <v>-54.76496944030786</v>
-      </c>
-      <c r="D8" t="n">
-        <v>644.3642098975768</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -972,12 +920,6 @@
       <c r="B9" t="n">
         <v>302</v>
       </c>
-      <c r="C9" t="n">
-        <v>-49.46691241018775</v>
-      </c>
-      <c r="D9" t="n">
-        <v>683.1452475654792</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -986,12 +928,6 @@
       <c r="B10" t="n">
         <v>300</v>
       </c>
-      <c r="C10" t="n">
-        <v>-39.16518460653634</v>
-      </c>
-      <c r="D10" t="n">
-        <v>648.9871104096633</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1000,12 +936,6 @@
       <c r="B11" t="n">
         <v>294</v>
       </c>
-      <c r="C11" t="n">
-        <v>-61.7462236959167</v>
-      </c>
-      <c r="D11" t="n">
-        <v>645.3150905303454</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1014,12 +944,6 @@
       <c r="B12" t="n">
         <v>292</v>
       </c>
-      <c r="C12" t="n">
-        <v>-75.47788810933093</v>
-      </c>
-      <c r="D12" t="n">
-        <v>632.0845954422282</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1028,12 +952,6 @@
       <c r="B13" t="n">
         <v>290</v>
       </c>
-      <c r="C13" t="n">
-        <v>-50.98087888754146</v>
-      </c>
-      <c r="D13" t="n">
-        <v>657.9531823684994</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1042,12 +960,6 @@
       <c r="B14" t="n">
         <v>288</v>
       </c>
-      <c r="C14" t="n">
-        <v>-102.0754387676903</v>
-      </c>
-      <c r="D14" t="n">
-        <v>637.1436314636308</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1056,12 +968,6 @@
       <c r="B15" t="n">
         <v>281</v>
       </c>
-      <c r="C15" t="n">
-        <v>-93.53243120583049</v>
-      </c>
-      <c r="D15" t="n">
-        <v>654.4510661944362</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1070,12 +976,6 @@
       <c r="B16" t="n">
         <v>279</v>
       </c>
-      <c r="C16" t="n">
-        <v>-65.47565449771258</v>
-      </c>
-      <c r="D16" t="n">
-        <v>603.8672368109977</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1084,12 +984,6 @@
       <c r="B17" t="n">
         <v>269</v>
       </c>
-      <c r="C17" t="n">
-        <v>-62.47940622114317</v>
-      </c>
-      <c r="D17" t="n">
-        <v>629.955922032196</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1098,12 +992,6 @@
       <c r="B18" t="n">
         <v>265</v>
       </c>
-      <c r="C18" t="n">
-        <v>-86.47130680370653</v>
-      </c>
-      <c r="D18" t="n">
-        <v>618.5229746543392</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1112,12 +1000,6 @@
       <c r="B19" t="n">
         <v>263</v>
       </c>
-      <c r="C19" t="n">
-        <v>-86.34028785995719</v>
-      </c>
-      <c r="D19" t="n">
-        <v>605.5015976330302</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1126,12 +1008,6 @@
       <c r="B20" t="n">
         <v>260</v>
       </c>
-      <c r="C20" t="n">
-        <v>-80.15217669554488</v>
-      </c>
-      <c r="D20" t="n">
-        <v>632.7848579332637</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1140,12 +1016,6 @@
       <c r="B21" t="n">
         <v>258</v>
       </c>
-      <c r="C21" t="n">
-        <v>-72.12166152427066</v>
-      </c>
-      <c r="D21" t="n">
-        <v>611.6630978317992</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1154,12 +1024,6 @@
       <c r="B22" t="n">
         <v>256</v>
       </c>
-      <c r="C22" t="n">
-        <v>-95.79475693486428</v>
-      </c>
-      <c r="D22" t="n">
-        <v>650.0727092897188</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1168,12 +1032,6 @@
       <c r="B23" t="n">
         <v>254</v>
       </c>
-      <c r="C23" t="n">
-        <v>-101.0513602630947</v>
-      </c>
-      <c r="D23" t="n">
-        <v>616.0632903432503</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1182,12 +1040,6 @@
       <c r="B24" t="n">
         <v>252</v>
       </c>
-      <c r="C24" t="n">
-        <v>-103.1495404701203</v>
-      </c>
-      <c r="D24" t="n">
-        <v>590.0663789903448</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1196,12 +1048,6 @@
       <c r="B25" t="n">
         <v>248</v>
       </c>
-      <c r="C25" t="n">
-        <v>-77.98733021764353</v>
-      </c>
-      <c r="D25" t="n">
-        <v>590.5921084978763</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1210,12 +1056,6 @@
       <c r="B26" t="n">
         <v>215</v>
       </c>
-      <c r="C26" t="n">
-        <v>-111.7200621479483</v>
-      </c>
-      <c r="D26" t="n">
-        <v>557.5104319915403</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1224,12 +1064,6 @@
       <c r="B27" t="n">
         <v>213</v>
       </c>
-      <c r="C27" t="n">
-        <v>-119.0014788446964</v>
-      </c>
-      <c r="D27" t="n">
-        <v>564.280563854149</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1238,12 +1072,6 @@
       <c r="B28" t="n">
         <v>210</v>
       </c>
-      <c r="C28" t="n">
-        <v>-150.1178716423307</v>
-      </c>
-      <c r="D28" t="n">
-        <v>571.7798991477364</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1252,12 +1080,6 @@
       <c r="B29" t="n">
         <v>208</v>
       </c>
-      <c r="C29" t="n">
-        <v>-150.0045151050702</v>
-      </c>
-      <c r="D29" t="n">
-        <v>573.3691184464665</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1266,12 +1088,6 @@
       <c r="B30" t="n">
         <v>206</v>
       </c>
-      <c r="C30" t="n">
-        <v>-150.0448210647493</v>
-      </c>
-      <c r="D30" t="n">
-        <v>569.6154398191526</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1280,12 +1096,6 @@
       <c r="B31" t="n">
         <v>204</v>
       </c>
-      <c r="C31" t="n">
-        <v>-152.1438885305891</v>
-      </c>
-      <c r="D31" t="n">
-        <v>528.403840372429</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1294,12 +1104,6 @@
       <c r="B32" t="n">
         <v>179</v>
       </c>
-      <c r="C32" t="n">
-        <v>-174.8209820732615</v>
-      </c>
-      <c r="D32" t="n">
-        <v>516.332695241665</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1308,12 +1112,6 @@
       <c r="B33" t="n">
         <v>177</v>
       </c>
-      <c r="C33" t="n">
-        <v>-186.2753292317971</v>
-      </c>
-      <c r="D33" t="n">
-        <v>509.3337329319882</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1322,12 +1120,6 @@
       <c r="B34" t="n">
         <v>175</v>
       </c>
-      <c r="C34" t="n">
-        <v>-180.6586291431469</v>
-      </c>
-      <c r="D34" t="n">
-        <v>539.2268985082916</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1336,12 +1128,6 @@
       <c r="B35" t="n">
         <v>173</v>
       </c>
-      <c r="C35" t="n">
-        <v>-190.46361901817</v>
-      </c>
-      <c r="D35" t="n">
-        <v>530.7310526627302</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1350,12 +1136,6 @@
       <c r="B36" t="n">
         <v>171</v>
       </c>
-      <c r="C36" t="n">
-        <v>-189.9734868340217</v>
-      </c>
-      <c r="D36" t="n">
-        <v>533.1683060389925</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1364,12 +1144,6 @@
       <c r="B37" t="n">
         <v>169</v>
       </c>
-      <c r="C37" t="n">
-        <v>-173.110341010167</v>
-      </c>
-      <c r="D37" t="n">
-        <v>540.1715065313767</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1378,12 +1152,6 @@
       <c r="B38" t="n">
         <v>167</v>
       </c>
-      <c r="C38" t="n">
-        <v>-195.1974367309816</v>
-      </c>
-      <c r="D38" t="n">
-        <v>525.963150058896</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1392,12 +1160,6 @@
       <c r="B39" t="n">
         <v>165</v>
       </c>
-      <c r="C39" t="n">
-        <v>-166.1893815189382</v>
-      </c>
-      <c r="D39" t="n">
-        <v>520.0059449302208</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1405,12 +1167,6 @@
       </c>
       <c r="B40" t="n">
         <v>162</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-198.7182104334266</v>
-      </c>
-      <c r="D40" t="n">
-        <v>507.6495340618631</v>
       </c>
     </row>
   </sheetData>
